--- a/medicine/Enfance/Roger_Buliard/Roger_Buliard.xlsx
+++ b/medicine/Enfance/Roger_Buliard/Roger_Buliard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Buliard, né en Franche-Comté au Russey le 18 janvier 1909 et mort à Morteau le 5 juin 1978[1], est un missionnaire français catholique de la congrégation des Oblats de Marie-Immaculée. Son séjour d'une quinzaine d'années dans le Grand Nord Canadien auprès des populations inuits est à l'origine de plusieurs livres, dont Inuk : au dos de la terre !, qui connut plusieurs éditions et demeure son ouvrage le plus connu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Buliard, né en Franche-Comté au Russey le 18 janvier 1909 et mort à Morteau le 5 juin 1978, est un missionnaire français catholique de la congrégation des Oblats de Marie-Immaculée. Son séjour d'une quinzaine d'années dans le Grand Nord Canadien auprès des populations inuits est à l'origine de plusieurs livres, dont Inuk : au dos de la terre !, qui connut plusieurs éditions et demeure son ouvrage le plus connu.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rober Buliard effectue ses études au petit séminaire de Consolation avant d'effectuer son noviciat à Coigny. Il fait profession en 1927 et est ordonné prêtre en 1933. 
-Missionnaire chez les Oblats de Marie Immaculée, il est envoyé dans la région du Nord canadien où il passe une quinzaine d'années. Dès 1935, il seconde le père Pierre Fallaize[2] à Coppermine et  à partir de 1938 se fixe à Holman Island sur l'île Victoria où il séjourne durant 12 ans. 
+Missionnaire chez les Oblats de Marie Immaculée, il est envoyé dans la région du Nord canadien où il passe une quinzaine d'années. Dès 1935, il seconde le père Pierre Fallaize à Coppermine et  à partir de 1938 se fixe à Holman Island sur l'île Victoria où il séjourne durant 12 ans. 
 À la suite d'un grave accident, il doit cesser ses activités missionnaires et devient aumônier militaire dans l'armée canadienne à partir de 1952. Il effectue son service en Corée, au Japon, au Canada et en Allemagne jusqu'en 1965. 
 De 1965 à 1977, il donne en France des conférences sur les missions inuites du MacKenzie. 
 Il est inhumé au Russey. 
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1949 : Inuk, au dos de la terre ! - Prix Montyon 1950 de l’Académie française
 1949, avec la collaboration littéraire de Joseph Sachot, dessins, couverture et cartes d'André Millot, préface de Monseigneur Maurice-Louis Dubourg, Paris, Éditions Saint-Germain et Pères oblats.
